--- a/Code/Results/Cases/Case_5_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9956665060060202</v>
+        <v>1.028784482558156</v>
       </c>
       <c r="D2">
-        <v>1.014243875252665</v>
+        <v>1.031106560225712</v>
       </c>
       <c r="E2">
-        <v>1.008879030502458</v>
+        <v>1.037373818706157</v>
       </c>
       <c r="F2">
-        <v>1.011058179750874</v>
+        <v>1.045197633122812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043744877169024</v>
+        <v>1.030645842577517</v>
       </c>
       <c r="J2">
-        <v>1.017977608225048</v>
+        <v>1.033934879726482</v>
       </c>
       <c r="K2">
-        <v>1.02550827379818</v>
+        <v>1.03391563697029</v>
       </c>
       <c r="L2">
-        <v>1.020216036892635</v>
+        <v>1.040164886640484</v>
       </c>
       <c r="M2">
-        <v>1.022365576623857</v>
+        <v>1.047966548433424</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000485985363262</v>
+        <v>1.029788170279179</v>
       </c>
       <c r="D3">
-        <v>1.01768906218149</v>
+        <v>1.031822661745746</v>
       </c>
       <c r="E3">
-        <v>1.013050021576653</v>
+        <v>1.038300522135754</v>
       </c>
       <c r="F3">
-        <v>1.015910568779835</v>
+        <v>1.046291838035137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044995179503184</v>
+        <v>1.030808273457226</v>
       </c>
       <c r="J3">
-        <v>1.020963410689477</v>
+        <v>1.034579045482416</v>
       </c>
       <c r="K3">
-        <v>1.028100502522938</v>
+        <v>1.034440480933844</v>
       </c>
       <c r="L3">
-        <v>1.023518604126664</v>
+        <v>1.040901074917712</v>
       </c>
       <c r="M3">
-        <v>1.026343839282877</v>
+        <v>1.048871408493035</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003535379175917</v>
+        <v>1.030437600828379</v>
       </c>
       <c r="D4">
-        <v>1.01986825260854</v>
+        <v>1.032285477444552</v>
       </c>
       <c r="E4">
-        <v>1.015695502986526</v>
+        <v>1.038900590218199</v>
       </c>
       <c r="F4">
-        <v>1.018989069433119</v>
+        <v>1.047000598492137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045770181876654</v>
+        <v>1.030911346223459</v>
       </c>
       <c r="J4">
-        <v>1.022849079911207</v>
+        <v>1.034995266394261</v>
       </c>
       <c r="K4">
-        <v>1.029732656293429</v>
+        <v>1.034778872226354</v>
       </c>
       <c r="L4">
-        <v>1.025608117079643</v>
+        <v>1.041377241684063</v>
       </c>
       <c r="M4">
-        <v>1.028863590327164</v>
+        <v>1.049457058461462</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004801413197976</v>
+        <v>1.030710615713436</v>
       </c>
       <c r="D5">
-        <v>1.020772768769725</v>
+        <v>1.032479912409638</v>
       </c>
       <c r="E5">
-        <v>1.016795337505184</v>
+        <v>1.039152960796598</v>
       </c>
       <c r="F5">
-        <v>1.020269151354991</v>
+        <v>1.047298737200053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046088018847837</v>
+        <v>1.030954191198927</v>
       </c>
       <c r="J5">
-        <v>1.023631079390437</v>
+        <v>1.035170102035964</v>
       </c>
       <c r="K5">
-        <v>1.030408304572448</v>
+        <v>1.034920839546412</v>
       </c>
       <c r="L5">
-        <v>1.026475570462613</v>
+        <v>1.041577374598863</v>
       </c>
       <c r="M5">
-        <v>1.029910322932903</v>
+        <v>1.049703299845838</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005013069042799</v>
+        <v>1.030756455769145</v>
       </c>
       <c r="D6">
-        <v>1.020923970344943</v>
+        <v>1.032512551078431</v>
       </c>
       <c r="E6">
-        <v>1.016979294832779</v>
+        <v>1.039195340884218</v>
       </c>
       <c r="F6">
-        <v>1.020483270491588</v>
+        <v>1.047348806294415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046140922291443</v>
+        <v>1.030961356493581</v>
       </c>
       <c r="J6">
-        <v>1.023761761067949</v>
+        <v>1.0351994492692</v>
       </c>
       <c r="K6">
-        <v>1.030521141320587</v>
+        <v>1.034944659314749</v>
       </c>
       <c r="L6">
-        <v>1.026620586802433</v>
+        <v>1.041610974987312</v>
       </c>
       <c r="M6">
-        <v>1.030085349846812</v>
+        <v>1.049744646842831</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003552357787894</v>
+        <v>1.030441248889518</v>
       </c>
       <c r="D7">
-        <v>1.019880383958957</v>
+        <v>1.032288076017132</v>
       </c>
       <c r="E7">
-        <v>1.015710246863183</v>
+        <v>1.038903962006546</v>
       </c>
       <c r="F7">
-        <v>1.019006228711046</v>
+        <v>1.047004581546031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045774459941015</v>
+        <v>1.030911920633764</v>
       </c>
       <c r="J7">
-        <v>1.022859570749408</v>
+        <v>1.034997603121808</v>
       </c>
       <c r="K7">
-        <v>1.029741725234244</v>
+        <v>1.034780770350541</v>
       </c>
       <c r="L7">
-        <v>1.025619750672973</v>
+        <v>1.041379916057648</v>
       </c>
       <c r="M7">
-        <v>1.028877625616055</v>
+        <v>1.049460348617487</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973099695200627</v>
+        <v>1.029123687990597</v>
       </c>
       <c r="D8">
-        <v>1.015418791721347</v>
+        <v>1.031348683273746</v>
       </c>
       <c r="E8">
-        <v>1.010299987197836</v>
+        <v>1.037686913194885</v>
       </c>
       <c r="F8">
-        <v>1.012711110910725</v>
+        <v>1.045567271919691</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044174574989787</v>
+        <v>1.030701156989109</v>
       </c>
       <c r="J8">
-        <v>1.018996492652776</v>
+        <v>1.034152701891751</v>
       </c>
       <c r="K8">
-        <v>1.026393878854547</v>
+        <v>1.03409326211532</v>
       </c>
       <c r="L8">
-        <v>1.021342222981678</v>
+        <v>1.04041372519336</v>
       </c>
       <c r="M8">
-        <v>1.023721611500294</v>
+        <v>1.048272319757126</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.98575095935881</v>
+        <v>1.026801818607665</v>
       </c>
       <c r="D9">
-        <v>1.007155555728921</v>
+        <v>1.029689190448959</v>
       </c>
       <c r="E9">
-        <v>1.000334998175082</v>
+        <v>1.035545635706724</v>
       </c>
       <c r="F9">
-        <v>1.001121895014845</v>
+        <v>1.043040215130841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041086499706168</v>
+        <v>1.030314237353928</v>
       </c>
       <c r="J9">
-        <v>1.011817120218476</v>
+        <v>1.032659328914761</v>
       </c>
       <c r="K9">
-        <v>1.020133596102735</v>
+        <v>1.032872493271132</v>
       </c>
       <c r="L9">
-        <v>1.013422642604732</v>
+        <v>1.038709696391907</v>
       </c>
       <c r="M9">
-        <v>1.014196796441569</v>
+        <v>1.046179996570818</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9776245016876935</v>
+        <v>1.025253814436939</v>
       </c>
       <c r="D10">
-        <v>1.001350219842964</v>
+        <v>1.028580126586299</v>
       </c>
       <c r="E10">
-        <v>0.9933683548622171</v>
+        <v>1.034120389714618</v>
       </c>
       <c r="F10">
-        <v>0.9930218872755039</v>
+        <v>1.041359350138021</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038834566709902</v>
+        <v>1.030045886450925</v>
       </c>
       <c r="J10">
-        <v>1.006754892240889</v>
+        <v>1.031660721950384</v>
       </c>
       <c r="K10">
-        <v>1.015695138372584</v>
+        <v>1.032052446663378</v>
       </c>
       <c r="L10">
-        <v>1.007858387005861</v>
+        <v>1.037572717384435</v>
       </c>
       <c r="M10">
-        <v>1.007518287168457</v>
+        <v>1.044785909037276</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739950142790117</v>
+        <v>1.02458349217619</v>
       </c>
       <c r="D11">
-        <v>0.9987596068651623</v>
+        <v>1.028099253690401</v>
       </c>
       <c r="E11">
-        <v>0.9902669170798649</v>
+        <v>1.033503789475113</v>
       </c>
       <c r="F11">
-        <v>0.9894160203006115</v>
+        <v>1.040632433129845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037810573214945</v>
+        <v>1.0299272267649</v>
       </c>
       <c r="J11">
-        <v>1.00449112637764</v>
+        <v>1.031227603061432</v>
       </c>
       <c r="K11">
-        <v>1.013704953155611</v>
+        <v>1.031695895887648</v>
       </c>
       <c r="L11">
-        <v>1.005374749313014</v>
+        <v>1.037080171633253</v>
       </c>
       <c r="M11">
-        <v>1.004540333790108</v>
+        <v>1.044182448012637</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726292175541242</v>
+        <v>1.024334500767585</v>
       </c>
       <c r="D12">
-        <v>0.9977851866981614</v>
+        <v>1.027920540753367</v>
       </c>
       <c r="E12">
-        <v>0.9891014069966018</v>
+        <v>1.033274838493953</v>
       </c>
       <c r="F12">
-        <v>0.9880609317034587</v>
+        <v>1.040362560637946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03742258693241</v>
+        <v>1.029882781895308</v>
       </c>
       <c r="J12">
-        <v>1.003638892069944</v>
+        <v>1.031066616368232</v>
       </c>
       <c r="K12">
-        <v>1.012954942404661</v>
+        <v>1.031563237590666</v>
       </c>
       <c r="L12">
-        <v>1.004440428474003</v>
+        <v>1.036897184641552</v>
       </c>
       <c r="M12">
-        <v>1.003420496528992</v>
+        <v>1.04395832435416</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9729230011862091</v>
+        <v>1.024387910444245</v>
       </c>
       <c r="D13">
-        <v>0.9979947631846408</v>
+        <v>1.027958879583721</v>
       </c>
       <c r="E13">
-        <v>0.9893520363941017</v>
+        <v>1.033323945545775</v>
       </c>
       <c r="F13">
-        <v>0.9883523290439736</v>
+        <v>1.040420443005336</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037506161362751</v>
+        <v>1.029892332177841</v>
       </c>
       <c r="J13">
-        <v>1.00382222368007</v>
+        <v>1.031101153397776</v>
       </c>
       <c r="K13">
-        <v>1.013116318046918</v>
+        <v>1.031591703166298</v>
       </c>
       <c r="L13">
-        <v>1.004641387474084</v>
+        <v>1.036936437484557</v>
       </c>
       <c r="M13">
-        <v>1.003661337814394</v>
+        <v>1.044006398337861</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738824831753937</v>
+        <v>1.024562910547347</v>
       </c>
       <c r="D14">
-        <v>0.9986793125194184</v>
+        <v>1.02808448316252</v>
       </c>
       <c r="E14">
-        <v>0.990170855562583</v>
+        <v>1.033484862643568</v>
       </c>
       <c r="F14">
-        <v>0.9893043342193248</v>
+        <v>1.040610122591802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03777865950823</v>
+        <v>1.029923560470435</v>
       </c>
       <c r="J14">
-        <v>1.004420915933082</v>
+        <v>1.031214298032477</v>
       </c>
       <c r="K14">
-        <v>1.013643179744357</v>
+        <v>1.031684934784614</v>
       </c>
       <c r="L14">
-        <v>1.005297762317826</v>
+        <v>1.037065046553731</v>
       </c>
       <c r="M14">
-        <v>1.004448051593453</v>
+        <v>1.044163921294784</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744712820238736</v>
+        <v>1.024670733375118</v>
       </c>
       <c r="D15">
-        <v>0.9990994569987873</v>
+        <v>1.028161859068883</v>
       </c>
       <c r="E15">
-        <v>0.9906735449821809</v>
+        <v>1.033584019835006</v>
       </c>
       <c r="F15">
-        <v>0.989888786050137</v>
+        <v>1.04072700858945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037945534755456</v>
+        <v>1.029942752320873</v>
       </c>
       <c r="J15">
-        <v>1.004788264956222</v>
+        <v>1.031283996003651</v>
       </c>
       <c r="K15">
-        <v>1.013966354069314</v>
+        <v>1.031742348800371</v>
       </c>
       <c r="L15">
-        <v>1.005700595007724</v>
+        <v>1.037144282410615</v>
       </c>
       <c r="M15">
-        <v>1.004930933923559</v>
+        <v>1.044260980193173</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9778629621012905</v>
+        <v>1.025298300970699</v>
       </c>
       <c r="D16">
-        <v>1.001520480392867</v>
+        <v>1.028612027115222</v>
       </c>
       <c r="E16">
-        <v>0.9935723367563715</v>
+        <v>1.034161322882122</v>
       </c>
       <c r="F16">
-        <v>0.9932590452816364</v>
+        <v>1.041407612398604</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038901471942387</v>
+        <v>1.030053709675769</v>
       </c>
       <c r="J16">
-        <v>1.00690356947764</v>
+        <v>1.031689451587864</v>
       </c>
       <c r="K16">
-        <v>1.015825739058031</v>
+        <v>1.032076078951206</v>
       </c>
       <c r="L16">
-        <v>1.008021600406374</v>
+        <v>1.037605401292372</v>
       </c>
       <c r="M16">
-        <v>1.007714046650049</v>
+        <v>1.044825962752997</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9799601497540559</v>
+        <v>1.025691950566819</v>
       </c>
       <c r="D17">
-        <v>1.003018133851094</v>
+        <v>1.028894234723932</v>
       </c>
       <c r="E17">
-        <v>0.9953674458818015</v>
+        <v>1.03452359499138</v>
       </c>
       <c r="F17">
-        <v>0.9953461256975681</v>
+        <v>1.041834780692859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039487822630395</v>
+        <v>1.030122651511215</v>
       </c>
       <c r="J17">
-        <v>1.008210825040191</v>
+        <v>1.031943591920998</v>
       </c>
       <c r="K17">
-        <v>1.01697345038804</v>
+        <v>1.03228502725792</v>
       </c>
       <c r="L17">
-        <v>1.00945719104769</v>
+        <v>1.037894588696134</v>
       </c>
       <c r="M17">
-        <v>1.009436249222436</v>
+        <v>1.045180412008273</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9811727977468857</v>
+        <v>1.025921557180136</v>
       </c>
       <c r="D18">
-        <v>1.003884316563443</v>
+        <v>1.02905877974382</v>
       </c>
       <c r="E18">
-        <v>0.9964063710487296</v>
+        <v>1.034734954313334</v>
       </c>
       <c r="F18">
-        <v>0.9965540445673617</v>
+        <v>1.042084028378346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039825134054772</v>
+        <v>1.030162626539124</v>
       </c>
       <c r="J18">
-        <v>1.008966440487366</v>
+        <v>1.032091758614587</v>
       </c>
       <c r="K18">
-        <v>1.017636336803806</v>
+        <v>1.03240676185712</v>
       </c>
       <c r="L18">
-        <v>1.010287424870959</v>
+        <v>1.038063244948772</v>
       </c>
       <c r="M18">
-        <v>1.010432525984057</v>
+        <v>1.045387174383569</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9815845099396826</v>
+        <v>1.025999846669454</v>
       </c>
       <c r="D19">
-        <v>1.004178429442684</v>
+        <v>1.029114874814111</v>
       </c>
       <c r="E19">
-        <v>0.9967592603453861</v>
+        <v>1.034807031204787</v>
       </c>
       <c r="F19">
-        <v>0.9969643390045876</v>
+        <v>1.042169030253943</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039939360110236</v>
+        <v>1.030176216677734</v>
       </c>
       <c r="J19">
-        <v>1.009222935132035</v>
+        <v>1.032142267900379</v>
       </c>
       <c r="K19">
-        <v>1.0178612669615</v>
+        <v>1.032448246203135</v>
       </c>
       <c r="L19">
-        <v>1.010569323435317</v>
+        <v>1.038120748650061</v>
       </c>
       <c r="M19">
-        <v>1.010770852437633</v>
+        <v>1.045457678072471</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9797362454870127</v>
+        <v>1.025649715952317</v>
       </c>
       <c r="D20">
-        <v>1.002858216669835</v>
+        <v>1.028863962914275</v>
       </c>
       <c r="E20">
-        <v>0.9951756940089108</v>
+        <v>1.034484721226317</v>
       </c>
       <c r="F20">
-        <v>0.9951231844739861</v>
+        <v>1.041788940509296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039425400568294</v>
+        <v>1.030115279274865</v>
       </c>
       <c r="J20">
-        <v>1.008071285085735</v>
+        <v>1.031916332208654</v>
       </c>
       <c r="K20">
-        <v>1.016850993284641</v>
+        <v>1.032262623704202</v>
       </c>
       <c r="L20">
-        <v>1.009303906794611</v>
+        <v>1.037863563883154</v>
       </c>
       <c r="M20">
-        <v>1.00925233229673</v>
+        <v>1.045142381080423</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9736004352521</v>
+        <v>1.024511377485183</v>
       </c>
       <c r="D21">
-        <v>0.998478070307441</v>
+        <v>1.028047498663144</v>
       </c>
       <c r="E21">
-        <v>0.9899301126693241</v>
+        <v>1.033437474306325</v>
       </c>
       <c r="F21">
-        <v>0.9890244337236731</v>
+        <v>1.040554262900752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037698628600505</v>
+        <v>1.029914374709253</v>
       </c>
       <c r="J21">
-        <v>1.004244934809559</v>
+        <v>1.031180982709297</v>
       </c>
       <c r="K21">
-        <v>1.013488333593128</v>
+        <v>1.031657486449732</v>
       </c>
       <c r="L21">
-        <v>1.005104806955803</v>
+        <v>1.037027175311549</v>
       </c>
       <c r="M21">
-        <v>1.004216768338308</v>
+        <v>1.04411753391663</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9696399646319294</v>
+        <v>1.023795636523233</v>
       </c>
       <c r="D22">
-        <v>0.9956534627721255</v>
+        <v>1.027533604085711</v>
       </c>
       <c r="E22">
-        <v>0.9865534965433057</v>
+        <v>1.032779502162881</v>
       </c>
       <c r="F22">
-        <v>0.9850985165973271</v>
+        <v>1.039778764027915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036568639392306</v>
+        <v>1.029785921168039</v>
       </c>
       <c r="J22">
-        <v>1.001773044194764</v>
+        <v>1.030718020130533</v>
       </c>
       <c r="K22">
-        <v>1.011311519986185</v>
+        <v>1.031275743215042</v>
       </c>
       <c r="L22">
-        <v>1.002396121946104</v>
+        <v>1.036501110612731</v>
       </c>
       <c r="M22">
-        <v>1.000971069695318</v>
+        <v>1.043473337688232</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9717495750775778</v>
+        <v>1.024175066449704</v>
       </c>
       <c r="D23">
-        <v>0.9971577496956993</v>
+        <v>1.027806081244408</v>
       </c>
       <c r="E23">
-        <v>0.9883512131863977</v>
+        <v>1.033128260567862</v>
       </c>
       <c r="F23">
-        <v>0.9871887045995696</v>
+        <v>1.040189795473325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037171967845083</v>
+        <v>1.029854219204063</v>
       </c>
       <c r="J23">
-        <v>1.003089914521774</v>
+        <v>1.030963503896917</v>
       </c>
       <c r="K23">
-        <v>1.012471600725971</v>
+        <v>1.031478232633884</v>
       </c>
       <c r="L23">
-        <v>1.003838766858663</v>
+        <v>1.036780005708352</v>
       </c>
       <c r="M23">
-        <v>1.002699492548873</v>
+        <v>1.043814822450355</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979837450888858</v>
+        <v>1.025668799964337</v>
       </c>
       <c r="D24">
-        <v>1.002930499101941</v>
+        <v>1.028877641633324</v>
       </c>
       <c r="E24">
-        <v>0.9952623635005935</v>
+        <v>1.03450228644634</v>
       </c>
       <c r="F24">
-        <v>0.9952239511219521</v>
+        <v>1.041809653444177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039453620905495</v>
+        <v>1.030118611205218</v>
       </c>
       <c r="J24">
-        <v>1.00813435841733</v>
+        <v>1.03192864991263</v>
       </c>
       <c r="K24">
-        <v>1.016906346595945</v>
+        <v>1.03227274734271</v>
       </c>
       <c r="L24">
-        <v>1.009373191313441</v>
+        <v>1.037877582728211</v>
       </c>
       <c r="M24">
-        <v>1.009335461893605</v>
+        <v>1.04515956556363</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9888098863179863</v>
+        <v>1.027402094700151</v>
       </c>
       <c r="D25">
-        <v>1.009341993524491</v>
+        <v>1.030118695850171</v>
       </c>
       <c r="E25">
-        <v>1.002965593873068</v>
+        <v>1.036098809767904</v>
       </c>
       <c r="F25">
-        <v>1.004180768767241</v>
+        <v>1.043692845305579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041917929022528</v>
+        <v>1.030416101758365</v>
       </c>
       <c r="J25">
-        <v>1.013719801443111</v>
+        <v>1.033045937233087</v>
       </c>
       <c r="K25">
-        <v>1.021796997609417</v>
+        <v>1.03318918755799</v>
       </c>
       <c r="L25">
-        <v>1.015518046597115</v>
+        <v>1.039150400273363</v>
       </c>
       <c r="M25">
-        <v>1.016714528524554</v>
+        <v>1.046720774481905</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028784482558156</v>
+        <v>0.9956665060060197</v>
       </c>
       <c r="D2">
-        <v>1.031106560225712</v>
+        <v>1.014243875252665</v>
       </c>
       <c r="E2">
-        <v>1.037373818706157</v>
+        <v>1.008879030502457</v>
       </c>
       <c r="F2">
-        <v>1.045197633122812</v>
+        <v>1.011058179750873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030645842577517</v>
+        <v>1.043744877169024</v>
       </c>
       <c r="J2">
-        <v>1.033934879726482</v>
+        <v>1.017977608225048</v>
       </c>
       <c r="K2">
-        <v>1.03391563697029</v>
+        <v>1.02550827379818</v>
       </c>
       <c r="L2">
-        <v>1.040164886640484</v>
+        <v>1.020216036892634</v>
       </c>
       <c r="M2">
-        <v>1.047966548433424</v>
+        <v>1.022365576623857</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029788170279179</v>
+        <v>1.000485985363261</v>
       </c>
       <c r="D3">
-        <v>1.031822661745746</v>
+        <v>1.017689062181488</v>
       </c>
       <c r="E3">
-        <v>1.038300522135754</v>
+        <v>1.013050021576652</v>
       </c>
       <c r="F3">
-        <v>1.046291838035137</v>
+        <v>1.015910568779833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030808273457226</v>
+        <v>1.044995179503183</v>
       </c>
       <c r="J3">
-        <v>1.034579045482416</v>
+        <v>1.020963410689476</v>
       </c>
       <c r="K3">
-        <v>1.034440480933844</v>
+        <v>1.028100502522937</v>
       </c>
       <c r="L3">
-        <v>1.040901074917712</v>
+        <v>1.023518604126663</v>
       </c>
       <c r="M3">
-        <v>1.048871408493035</v>
+        <v>1.026343839282875</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030437600828379</v>
+        <v>1.003535379175917</v>
       </c>
       <c r="D4">
-        <v>1.032285477444552</v>
+        <v>1.01986825260854</v>
       </c>
       <c r="E4">
-        <v>1.038900590218199</v>
+        <v>1.015695502986526</v>
       </c>
       <c r="F4">
-        <v>1.047000598492137</v>
+        <v>1.018989069433119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030911346223459</v>
+        <v>1.045770181876654</v>
       </c>
       <c r="J4">
-        <v>1.034995266394261</v>
+        <v>1.022849079911206</v>
       </c>
       <c r="K4">
-        <v>1.034778872226354</v>
+        <v>1.029732656293429</v>
       </c>
       <c r="L4">
-        <v>1.041377241684063</v>
+        <v>1.025608117079643</v>
       </c>
       <c r="M4">
-        <v>1.049457058461462</v>
+        <v>1.028863590327164</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030710615713436</v>
+        <v>1.004801413197975</v>
       </c>
       <c r="D5">
-        <v>1.032479912409638</v>
+        <v>1.020772768769724</v>
       </c>
       <c r="E5">
-        <v>1.039152960796598</v>
+        <v>1.016795337505183</v>
       </c>
       <c r="F5">
-        <v>1.047298737200053</v>
+        <v>1.02026915135499</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030954191198927</v>
+        <v>1.046088018847837</v>
       </c>
       <c r="J5">
-        <v>1.035170102035964</v>
+        <v>1.023631079390436</v>
       </c>
       <c r="K5">
-        <v>1.034920839546412</v>
+        <v>1.030408304572447</v>
       </c>
       <c r="L5">
-        <v>1.041577374598863</v>
+        <v>1.026475570462611</v>
       </c>
       <c r="M5">
-        <v>1.049703299845838</v>
+        <v>1.029910322932902</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030756455769145</v>
+        <v>1.005013069042799</v>
       </c>
       <c r="D6">
-        <v>1.032512551078431</v>
+        <v>1.020923970344944</v>
       </c>
       <c r="E6">
-        <v>1.039195340884218</v>
+        <v>1.016979294832779</v>
       </c>
       <c r="F6">
-        <v>1.047348806294415</v>
+        <v>1.020483270491588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030961356493581</v>
+        <v>1.046140922291443</v>
       </c>
       <c r="J6">
-        <v>1.0351994492692</v>
+        <v>1.023761761067949</v>
       </c>
       <c r="K6">
-        <v>1.034944659314749</v>
+        <v>1.030521141320588</v>
       </c>
       <c r="L6">
-        <v>1.041610974987312</v>
+        <v>1.026620586802433</v>
       </c>
       <c r="M6">
-        <v>1.049744646842831</v>
+        <v>1.030085349846812</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030441248889518</v>
+        <v>1.003552357787893</v>
       </c>
       <c r="D7">
-        <v>1.032288076017132</v>
+        <v>1.019880383958956</v>
       </c>
       <c r="E7">
-        <v>1.038903962006546</v>
+        <v>1.015710246863182</v>
       </c>
       <c r="F7">
-        <v>1.047004581546031</v>
+        <v>1.019006228711045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030911920633764</v>
+        <v>1.045774459941015</v>
       </c>
       <c r="J7">
-        <v>1.034997603121808</v>
+        <v>1.022859570749407</v>
       </c>
       <c r="K7">
-        <v>1.034780770350541</v>
+        <v>1.029741725234243</v>
       </c>
       <c r="L7">
-        <v>1.041379916057648</v>
+        <v>1.025619750672971</v>
       </c>
       <c r="M7">
-        <v>1.049460348617487</v>
+        <v>1.028877625616054</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029123687990597</v>
+        <v>0.9973099695200635</v>
       </c>
       <c r="D8">
-        <v>1.031348683273746</v>
+        <v>1.015418791721347</v>
       </c>
       <c r="E8">
-        <v>1.037686913194885</v>
+        <v>1.010299987197836</v>
       </c>
       <c r="F8">
-        <v>1.045567271919691</v>
+        <v>1.012711110910727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030701156989109</v>
+        <v>1.044174574989787</v>
       </c>
       <c r="J8">
-        <v>1.034152701891751</v>
+        <v>1.018996492652776</v>
       </c>
       <c r="K8">
-        <v>1.03409326211532</v>
+        <v>1.026393878854547</v>
       </c>
       <c r="L8">
-        <v>1.04041372519336</v>
+        <v>1.021342222981678</v>
       </c>
       <c r="M8">
-        <v>1.048272319757126</v>
+        <v>1.023721611500295</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026801818607665</v>
+        <v>0.9857509593588102</v>
       </c>
       <c r="D9">
-        <v>1.029689190448959</v>
+        <v>1.007155555728921</v>
       </c>
       <c r="E9">
-        <v>1.035545635706724</v>
+        <v>1.000334998175082</v>
       </c>
       <c r="F9">
-        <v>1.043040215130841</v>
+        <v>1.001121895014845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030314237353928</v>
+        <v>1.041086499706168</v>
       </c>
       <c r="J9">
-        <v>1.032659328914761</v>
+        <v>1.011817120218476</v>
       </c>
       <c r="K9">
-        <v>1.032872493271132</v>
+        <v>1.020133596102735</v>
       </c>
       <c r="L9">
-        <v>1.038709696391907</v>
+        <v>1.013422642604732</v>
       </c>
       <c r="M9">
-        <v>1.046179996570818</v>
+        <v>1.014196796441569</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025253814436939</v>
+        <v>0.9776245016876929</v>
       </c>
       <c r="D10">
-        <v>1.028580126586299</v>
+        <v>1.001350219842963</v>
       </c>
       <c r="E10">
-        <v>1.034120389714618</v>
+        <v>0.9933683548622159</v>
       </c>
       <c r="F10">
-        <v>1.041359350138021</v>
+        <v>0.9930218872755026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030045886450925</v>
+        <v>1.038834566709902</v>
       </c>
       <c r="J10">
-        <v>1.031660721950384</v>
+        <v>1.006754892240889</v>
       </c>
       <c r="K10">
-        <v>1.032052446663378</v>
+        <v>1.015695138372584</v>
       </c>
       <c r="L10">
-        <v>1.037572717384435</v>
+        <v>1.00785838700586</v>
       </c>
       <c r="M10">
-        <v>1.044785909037276</v>
+        <v>1.007518287168456</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02458349217619</v>
+        <v>0.9739950142790119</v>
       </c>
       <c r="D11">
-        <v>1.028099253690401</v>
+        <v>0.9987596068651625</v>
       </c>
       <c r="E11">
-        <v>1.033503789475113</v>
+        <v>0.9902669170798652</v>
       </c>
       <c r="F11">
-        <v>1.040632433129845</v>
+        <v>0.9894160203006119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0299272267649</v>
+        <v>1.037810573214945</v>
       </c>
       <c r="J11">
-        <v>1.031227603061432</v>
+        <v>1.00449112637764</v>
       </c>
       <c r="K11">
-        <v>1.031695895887648</v>
+        <v>1.013704953155611</v>
       </c>
       <c r="L11">
-        <v>1.037080171633253</v>
+        <v>1.005374749313014</v>
       </c>
       <c r="M11">
-        <v>1.044182448012637</v>
+        <v>1.004540333790108</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024334500767585</v>
+        <v>0.9726292175541246</v>
       </c>
       <c r="D12">
-        <v>1.027920540753367</v>
+        <v>0.9977851866981617</v>
       </c>
       <c r="E12">
-        <v>1.033274838493953</v>
+        <v>0.9891014069966022</v>
       </c>
       <c r="F12">
-        <v>1.040362560637946</v>
+        <v>0.9880609317034594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029882781895308</v>
+        <v>1.03742258693241</v>
       </c>
       <c r="J12">
-        <v>1.031066616368232</v>
+        <v>1.003638892069945</v>
       </c>
       <c r="K12">
-        <v>1.031563237590666</v>
+        <v>1.012954942404662</v>
       </c>
       <c r="L12">
-        <v>1.036897184641552</v>
+        <v>1.004440428474003</v>
       </c>
       <c r="M12">
-        <v>1.04395832435416</v>
+        <v>1.003420496528993</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024387910444245</v>
+        <v>0.9729230011862094</v>
       </c>
       <c r="D13">
-        <v>1.027958879583721</v>
+        <v>0.9979947631846409</v>
       </c>
       <c r="E13">
-        <v>1.033323945545775</v>
+        <v>0.989352036394102</v>
       </c>
       <c r="F13">
-        <v>1.040420443005336</v>
+        <v>0.9883523290439737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029892332177841</v>
+        <v>1.037506161362751</v>
       </c>
       <c r="J13">
-        <v>1.031101153397776</v>
+        <v>1.003822223680071</v>
       </c>
       <c r="K13">
-        <v>1.031591703166298</v>
+        <v>1.013116318046918</v>
       </c>
       <c r="L13">
-        <v>1.036936437484557</v>
+        <v>1.004641387474084</v>
       </c>
       <c r="M13">
-        <v>1.044006398337861</v>
+        <v>1.003661337814394</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024562910547347</v>
+        <v>0.9738824831753938</v>
       </c>
       <c r="D14">
-        <v>1.02808448316252</v>
+        <v>0.9986793125194188</v>
       </c>
       <c r="E14">
-        <v>1.033484862643568</v>
+        <v>0.9901708555625831</v>
       </c>
       <c r="F14">
-        <v>1.040610122591802</v>
+        <v>0.9893043342193247</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029923560470435</v>
+        <v>1.03777865950823</v>
       </c>
       <c r="J14">
-        <v>1.031214298032477</v>
+        <v>1.004420915933082</v>
       </c>
       <c r="K14">
-        <v>1.031684934784614</v>
+        <v>1.013643179744357</v>
       </c>
       <c r="L14">
-        <v>1.037065046553731</v>
+        <v>1.005297762317826</v>
       </c>
       <c r="M14">
-        <v>1.044163921294784</v>
+        <v>1.004448051593453</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024670733375118</v>
+        <v>0.9744712820238737</v>
       </c>
       <c r="D15">
-        <v>1.028161859068883</v>
+        <v>0.9990994569987877</v>
       </c>
       <c r="E15">
-        <v>1.033584019835006</v>
+        <v>0.9906735449821809</v>
       </c>
       <c r="F15">
-        <v>1.04072700858945</v>
+        <v>0.9898887860501369</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029942752320873</v>
+        <v>1.037945534755456</v>
       </c>
       <c r="J15">
-        <v>1.031283996003651</v>
+        <v>1.004788264956222</v>
       </c>
       <c r="K15">
-        <v>1.031742348800371</v>
+        <v>1.013966354069314</v>
       </c>
       <c r="L15">
-        <v>1.037144282410615</v>
+        <v>1.005700595007724</v>
       </c>
       <c r="M15">
-        <v>1.044260980193173</v>
+        <v>1.004930933923559</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025298300970699</v>
+        <v>0.9778629621012909</v>
       </c>
       <c r="D16">
-        <v>1.028612027115222</v>
+        <v>1.001520480392867</v>
       </c>
       <c r="E16">
-        <v>1.034161322882122</v>
+        <v>0.9935723367563716</v>
       </c>
       <c r="F16">
-        <v>1.041407612398604</v>
+        <v>0.9932590452816367</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030053709675769</v>
+        <v>1.038901471942387</v>
       </c>
       <c r="J16">
-        <v>1.031689451587864</v>
+        <v>1.00690356947764</v>
       </c>
       <c r="K16">
-        <v>1.032076078951206</v>
+        <v>1.015825739058031</v>
       </c>
       <c r="L16">
-        <v>1.037605401292372</v>
+        <v>1.008021600406374</v>
       </c>
       <c r="M16">
-        <v>1.044825962752997</v>
+        <v>1.007714046650049</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025691950566819</v>
+        <v>0.9799601497540557</v>
       </c>
       <c r="D17">
-        <v>1.028894234723932</v>
+        <v>1.003018133851094</v>
       </c>
       <c r="E17">
-        <v>1.03452359499138</v>
+        <v>0.9953674458818015</v>
       </c>
       <c r="F17">
-        <v>1.041834780692859</v>
+        <v>0.9953461256975682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030122651511215</v>
+        <v>1.039487822630395</v>
       </c>
       <c r="J17">
-        <v>1.031943591920998</v>
+        <v>1.008210825040191</v>
       </c>
       <c r="K17">
-        <v>1.03228502725792</v>
+        <v>1.016973450388039</v>
       </c>
       <c r="L17">
-        <v>1.037894588696134</v>
+        <v>1.00945719104769</v>
       </c>
       <c r="M17">
-        <v>1.045180412008273</v>
+        <v>1.009436249222436</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025921557180136</v>
+        <v>0.981172797746886</v>
       </c>
       <c r="D18">
-        <v>1.02905877974382</v>
+        <v>1.003884316563444</v>
       </c>
       <c r="E18">
-        <v>1.034734954313334</v>
+        <v>0.9964063710487301</v>
       </c>
       <c r="F18">
-        <v>1.042084028378346</v>
+        <v>0.9965540445673623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030162626539124</v>
+        <v>1.039825134054773</v>
       </c>
       <c r="J18">
-        <v>1.032091758614587</v>
+        <v>1.008966440487366</v>
       </c>
       <c r="K18">
-        <v>1.03240676185712</v>
+        <v>1.017636336803807</v>
       </c>
       <c r="L18">
-        <v>1.038063244948772</v>
+        <v>1.01028742487096</v>
       </c>
       <c r="M18">
-        <v>1.045387174383569</v>
+        <v>1.010432525984057</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025999846669454</v>
+        <v>0.9815845099396818</v>
       </c>
       <c r="D19">
-        <v>1.029114874814111</v>
+        <v>1.004178429442684</v>
       </c>
       <c r="E19">
-        <v>1.034807031204787</v>
+        <v>0.996759260345385</v>
       </c>
       <c r="F19">
-        <v>1.042169030253943</v>
+        <v>0.9969643390045867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030176216677734</v>
+        <v>1.039939360110236</v>
       </c>
       <c r="J19">
-        <v>1.032142267900379</v>
+        <v>1.009222935132034</v>
       </c>
       <c r="K19">
-        <v>1.032448246203135</v>
+        <v>1.017861266961499</v>
       </c>
       <c r="L19">
-        <v>1.038120748650061</v>
+        <v>1.010569323435316</v>
       </c>
       <c r="M19">
-        <v>1.045457678072471</v>
+        <v>1.010770852437632</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025649715952317</v>
+        <v>0.9797362454870133</v>
       </c>
       <c r="D20">
-        <v>1.028863962914275</v>
+        <v>1.002858216669835</v>
       </c>
       <c r="E20">
-        <v>1.034484721226317</v>
+        <v>0.9951756940089117</v>
       </c>
       <c r="F20">
-        <v>1.041788940509296</v>
+        <v>0.9951231844739871</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030115279274865</v>
+        <v>1.039425400568294</v>
       </c>
       <c r="J20">
-        <v>1.031916332208654</v>
+        <v>1.008071285085735</v>
       </c>
       <c r="K20">
-        <v>1.032262623704202</v>
+        <v>1.016850993284642</v>
       </c>
       <c r="L20">
-        <v>1.037863563883154</v>
+        <v>1.009303906794612</v>
       </c>
       <c r="M20">
-        <v>1.045142381080423</v>
+        <v>1.009252332296731</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024511377485183</v>
+        <v>0.9736004352520999</v>
       </c>
       <c r="D21">
-        <v>1.028047498663144</v>
+        <v>0.9984780703074411</v>
       </c>
       <c r="E21">
-        <v>1.033437474306325</v>
+        <v>0.989930112669324</v>
       </c>
       <c r="F21">
-        <v>1.040554262900752</v>
+        <v>0.9890244337236729</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029914374709253</v>
+        <v>1.037698628600505</v>
       </c>
       <c r="J21">
-        <v>1.031180982709297</v>
+        <v>1.004244934809559</v>
       </c>
       <c r="K21">
-        <v>1.031657486449732</v>
+        <v>1.013488333593129</v>
       </c>
       <c r="L21">
-        <v>1.037027175311549</v>
+        <v>1.005104806955803</v>
       </c>
       <c r="M21">
-        <v>1.04411753391663</v>
+        <v>1.004216768338308</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023795636523233</v>
+        <v>0.9696399646319293</v>
       </c>
       <c r="D22">
-        <v>1.027533604085711</v>
+        <v>0.9956534627721257</v>
       </c>
       <c r="E22">
-        <v>1.032779502162881</v>
+        <v>0.9865534965433057</v>
       </c>
       <c r="F22">
-        <v>1.039778764027915</v>
+        <v>0.9850985165973274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029785921168039</v>
+        <v>1.036568639392306</v>
       </c>
       <c r="J22">
-        <v>1.030718020130533</v>
+        <v>1.001773044194764</v>
       </c>
       <c r="K22">
-        <v>1.031275743215042</v>
+        <v>1.011311519986185</v>
       </c>
       <c r="L22">
-        <v>1.036501110612731</v>
+        <v>1.002396121946104</v>
       </c>
       <c r="M22">
-        <v>1.043473337688232</v>
+        <v>1.000971069695318</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024175066449704</v>
+        <v>0.9717495750775786</v>
       </c>
       <c r="D23">
-        <v>1.027806081244408</v>
+        <v>0.9971577496956996</v>
       </c>
       <c r="E23">
-        <v>1.033128260567862</v>
+        <v>0.9883512131863985</v>
       </c>
       <c r="F23">
-        <v>1.040189795473325</v>
+        <v>0.9871887045995701</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029854219204063</v>
+        <v>1.037171967845083</v>
       </c>
       <c r="J23">
-        <v>1.030963503896917</v>
+        <v>1.003089914521775</v>
       </c>
       <c r="K23">
-        <v>1.031478232633884</v>
+        <v>1.012471600725972</v>
       </c>
       <c r="L23">
-        <v>1.036780005708352</v>
+        <v>1.003838766858663</v>
       </c>
       <c r="M23">
-        <v>1.043814822450355</v>
+        <v>1.002699492548874</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025668799964337</v>
+        <v>0.9798374508888577</v>
       </c>
       <c r="D24">
-        <v>1.028877641633324</v>
+        <v>1.002930499101941</v>
       </c>
       <c r="E24">
-        <v>1.03450228644634</v>
+        <v>0.9952623635005934</v>
       </c>
       <c r="F24">
-        <v>1.041809653444177</v>
+        <v>0.9952239511219518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030118611205218</v>
+        <v>1.039453620905495</v>
       </c>
       <c r="J24">
-        <v>1.03192864991263</v>
+        <v>1.00813435841733</v>
       </c>
       <c r="K24">
-        <v>1.03227274734271</v>
+        <v>1.016906346595944</v>
       </c>
       <c r="L24">
-        <v>1.037877582728211</v>
+        <v>1.009373191313441</v>
       </c>
       <c r="M24">
-        <v>1.04515956556363</v>
+        <v>1.009335461893605</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027402094700151</v>
+        <v>0.9888098863179865</v>
       </c>
       <c r="D25">
-        <v>1.030118695850171</v>
+        <v>1.009341993524491</v>
       </c>
       <c r="E25">
-        <v>1.036098809767904</v>
+        <v>1.002965593873068</v>
       </c>
       <c r="F25">
-        <v>1.043692845305579</v>
+        <v>1.004180768767241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030416101758365</v>
+        <v>1.041917929022528</v>
       </c>
       <c r="J25">
-        <v>1.033045937233087</v>
+        <v>1.013719801443112</v>
       </c>
       <c r="K25">
-        <v>1.03318918755799</v>
+        <v>1.021796997609417</v>
       </c>
       <c r="L25">
-        <v>1.039150400273363</v>
+        <v>1.015518046597115</v>
       </c>
       <c r="M25">
-        <v>1.046720774481905</v>
+        <v>1.016714528524554</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
